--- a/biology/Botanique/Charles-Joseph_Marie_Pitard-Briau/Charles-Joseph_Marie_Pitard-Briau.xlsx
+++ b/biology/Botanique/Charles-Joseph_Marie_Pitard-Briau/Charles-Joseph_Marie_Pitard-Briau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Joseph Marie Pitard-Briau est un botaniste français, né le 30 octobre 1873 et mort le 29 décembre 1927.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est chef de travaux à la faculté des sciences de Bordeaux. En 1907, il est professeur à l’école de médecine et de pharmacie de Tours. Il obtient, en 1923, le Prix de Coincy pour ses travaux sur la flore des îles Canaries et du Maroc ainsi que pour la partie qu’il signe sur les Rubiaceae dans la Flore générale de l’Indo-Chine.
 </t>
